--- a/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v17-1-2_3_param-6_05112024_eval-summary.xlsx
+++ b/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v17-1-2_3_param-6_05112024_eval-summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.4717948717948718</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -579,73 +579,73 @@
         <v>0.8871794871794871</v>
       </c>
       <c r="E2" t="n">
-        <v>0.676923076923077</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8316239316239317</v>
+        <v>0.8487179487179487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8581196581196582</v>
+        <v>0.8683760683760684</v>
       </c>
       <c r="I2" t="n">
-        <v>0.582089552238806</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="J2" t="n">
         <v>128</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6517412935323382</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4805194805194805</v>
+        <v>0.487012987012987</v>
       </c>
       <c r="M2" t="n">
         <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6335616438356164</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="O2" t="n">
         <v>0.525</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3801652892561984</v>
+        <v>0.3966942148760331</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4475524475524476</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="U2" t="n">
         <v>0.3611111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4186046511627907</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="Z2" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
